--- a/output/Statistics.xlsx
+++ b/output/Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bcchanaka/PycharmProjects/Research-Proj-NetEmb/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26747AF-F196-4A4E-A209-EEB8064A18FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC53FE-D720-9A49-8D6E-634695D57EA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="32100" windowHeight="20540" activeTab="4" xr2:uid="{5F611BA1-94CC-3745-B4FE-A5D1794A1628}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{5F611BA1-94CC-3745-B4FE-A5D1794A1628}"/>
   </bookViews>
   <sheets>
     <sheet name="1CDX" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Non-Zero Entries" sheetId="3" r:id="rId3"/>
     <sheet name="Percentile Stats" sheetId="4" r:id="rId4"/>
     <sheet name="Common vs unique" sheetId="6" r:id="rId5"/>
-    <sheet name="Temp" sheetId="5" r:id="rId6"/>
+    <sheet name="mESC-results" sheetId="7" r:id="rId6"/>
+    <sheet name="Temp" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="175">
   <si>
     <t>100k</t>
   </si>
@@ -538,12 +539,36 @@
   <si>
     <t>pronucleus_female vs pronucleus_male</t>
   </si>
+  <si>
+    <t>ctcf</t>
+  </si>
+  <si>
+    <t>enhancer</t>
+  </si>
+  <si>
+    <t>h3k4me3</t>
+  </si>
+  <si>
+    <t>h3k27ac</t>
+  </si>
+  <si>
+    <t>polII</t>
+  </si>
+  <si>
+    <t>Random Samples - 1000</t>
+  </si>
+  <si>
+    <t>Random Samples - 10000</t>
+  </si>
+  <si>
+    <t>Unique Bins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -631,6 +656,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -841,27 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -892,12 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -920,6 +926,34 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21279,25 +21313,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -21333,7 +21367,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
@@ -21367,7 +21401,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -21401,7 +21435,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -21452,7 +21486,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -21476,7 +21510,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -21498,7 +21532,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
@@ -21520,7 +21554,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
@@ -21724,25 +21758,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -21778,7 +21812,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -21812,7 +21846,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -21846,7 +21880,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -22148,38 +22182,38 @@
       <c r="D1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21" t="s">
+      <c r="M1" s="53"/>
+      <c r="N1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21" t="s">
+      <c r="O1" s="53"/>
+      <c r="P1" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="21"/>
+      <c r="U1" s="53"/>
     </row>
     <row r="2" spans="2:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
@@ -31284,25 +31318,25 @@
       <c r="D1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="19"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
@@ -31314,7 +31348,7 @@
       <c r="D2" s="13">
         <v>2665</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="8" t="s">
         <v>54</v>
       </c>
@@ -31540,28 +31574,28 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="51"/>
+      <c r="J11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
+      <c r="K11" s="51"/>
+      <c r="L11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19" t="s">
+      <c r="M11" s="51"/>
+      <c r="N11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="19"/>
+      <c r="O11" s="51"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="19"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="8" t="s">
         <v>54</v>
       </c>
@@ -31734,16 +31768,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31753,7 +31787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ED1C7D-D3A3-8F4C-BF9A-7DD626240E14}">
   <dimension ref="B2:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -31767,276 +31801,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="47"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="44">
         <v>757</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="19">
         <v>219</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="26">
         <v>569</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="44">
         <v>1177</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="20">
         <f>D12-F4</f>
         <v>474</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="21">
         <f>D13-F4</f>
         <v>1402</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="19">
         <v>1588</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="20">
         <f>E12-I4</f>
         <v>545</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="21">
         <f>E13-I4</f>
         <v>6126</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="44">
         <v>526</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="19">
         <v>450</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="21">
         <f>C14-C5</f>
         <v>198</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="44">
         <v>1056</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="20">
         <f>D12-F5</f>
         <v>595</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="21">
         <f>D14-F5</f>
         <v>777</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="19">
         <v>1344</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="20">
         <f>E12-I5</f>
         <v>789</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="21">
         <f>E14-I5</f>
         <v>1647</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="44">
         <v>708</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="20">
         <f>C12-C6</f>
         <v>268</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="21">
         <f>C15-C6</f>
         <v>335</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="44">
         <v>1266</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="20">
         <f>D12-F6</f>
         <v>385</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="21">
         <f>D15-F6</f>
         <v>733</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="19">
         <v>1763</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="20">
         <f>E12-I6</f>
         <v>370</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="21">
         <f>E15-I6</f>
         <v>4295</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="44">
         <v>595</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="20">
         <f>C13-C7</f>
         <v>731</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="21">
         <f>C14-C7</f>
         <v>129</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="44">
         <v>1144</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="20">
         <f>D13-F7</f>
         <v>1435</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="21">
         <f>D14-F7</f>
         <v>689</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="19">
         <v>1590</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="20">
         <f>E13-I7</f>
         <v>6124</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="21">
         <f>E14-I7</f>
         <v>1401</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="44">
         <v>767</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="20">
         <f>C13-C8</f>
         <v>559</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="21">
         <f>C15-C8</f>
         <v>276</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="44">
         <v>1297</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="20">
         <f>D13-F8</f>
         <v>1282</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="21">
         <f>D15-F8</f>
         <v>702</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="19">
         <v>2173</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="20">
         <f>E13-I8</f>
         <v>5541</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="21">
         <f>E15-I8</f>
         <v>3885</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="45">
         <v>597</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="24">
         <f>C14-C9</f>
         <v>127</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="25">
         <f>C15-C9</f>
         <v>446</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="45">
         <v>1241</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="24">
         <f>D14-F9</f>
         <v>592</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="25">
         <f>D15-F9</f>
         <v>758</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="23">
         <v>1772</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="24">
         <f>E14-I9</f>
         <v>1219</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="25">
         <f>E15-I9</f>
         <v>4286</v>
       </c>
@@ -32064,14 +32098,14 @@
       <c r="V10" s="11"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="43" t="s">
         <v>160</v>
       </c>
       <c r="F11" s="11"/>
@@ -32088,16 +32122,16 @@
       <c r="V11" s="11"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="19">
         <v>976</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="19">
         <v>1651</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="26">
         <v>2133</v>
       </c>
       <c r="F12" s="11"/>
@@ -32114,16 +32148,16 @@
       <c r="V12" s="11"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="19">
         <v>1326</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="19">
         <v>2579</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="26">
         <v>7714</v>
       </c>
       <c r="F13" s="11"/>
@@ -32140,16 +32174,16 @@
       <c r="V13" s="11"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="19">
         <v>724</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="19">
         <v>1833</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="26">
         <v>2991</v>
       </c>
       <c r="F14" s="11"/>
@@ -32166,16 +32200,16 @@
       <c r="V14" s="11"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="23">
         <v>1043</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="23">
         <v>1999</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="27">
         <v>6058</v>
       </c>
       <c r="F15" s="11"/>
@@ -32228,313 +32262,313 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="23" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="47"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="45" t="s">
+      <c r="K20" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="46">
         <v>35</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="33">
         <v>2</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="34">
         <v>49</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="46">
         <v>73</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="33">
         <v>6</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="34">
         <v>156</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="48">
         <v>152</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="33">
         <v>47</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="34">
         <v>1694</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="46">
         <v>18</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="33">
         <v>19</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="34">
         <v>15</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="46">
         <v>28</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="33">
         <v>51</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="34">
         <v>22</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="49">
         <v>59</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="33">
         <v>140</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="34">
         <v>209</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="46">
         <v>15</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="33">
         <v>22</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="34">
         <v>36</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="46">
         <v>17</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="33">
         <v>62</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="34">
         <v>34</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="46">
         <v>43</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="33">
         <v>156</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="34">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="46">
         <v>21</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="33">
         <v>63</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="34">
         <v>12</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="46">
         <v>29</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="33">
         <v>200</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="34">
         <v>21</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="46">
         <v>75</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="33">
         <v>1771</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="34">
         <v>193</v>
       </c>
-      <c r="M24" s="35"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="46">
         <v>19</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="33">
         <v>65</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="34">
         <v>32</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="46">
         <v>19</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="33">
         <v>210</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="34">
         <v>32</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="46">
         <v>49</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="33">
         <v>1797</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="34">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="47">
         <v>13</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="35">
         <v>20</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="36">
         <v>38</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="47">
         <v>15</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="35">
         <v>35</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="36">
         <v>36</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="50">
         <v>48</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="35">
         <v>220</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="36">
         <v>226</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="50"/>
-      <c r="C29" s="51" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="43" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="29">
         <v>37</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="29">
         <v>79</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="30">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="29">
         <v>84</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="29">
         <v>229</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="30">
         <v>1846</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="29">
         <v>33</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="29">
         <v>50</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="30">
         <v>268</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="31">
         <v>51</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="31">
         <v>51</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="32">
         <v>274</v>
       </c>
     </row>
@@ -32567,6 +32601,355 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79279AC2-1421-DE4A-83E6-0CA7CDEC1039}">
+  <dimension ref="B4:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14">
+        <v>-0.39518695378250401</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.143413158361862</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1.67801302727702</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3.3061418911727198</v>
+      </c>
+      <c r="G5" s="14">
+        <v>3.15763483640308</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="14">
+        <v>11.5907613056856</v>
+      </c>
+      <c r="D6" s="14">
+        <v>10.625114352934</v>
+      </c>
+      <c r="E6" s="14">
+        <v>14.808190097347801</v>
+      </c>
+      <c r="F6" s="14">
+        <v>15.447050808019201</v>
+      </c>
+      <c r="G6" s="14">
+        <v>15.6425042093173</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4.7566935571848301</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4.8140353434686096</v>
+      </c>
+      <c r="E7" s="14">
+        <v>6.4456613229978696</v>
+      </c>
+      <c r="F7" s="14">
+        <v>8.6429172781174195</v>
+      </c>
+      <c r="G7" s="14">
+        <v>7.6995844673625404</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="14">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.8437602624740399</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2.3892769405165799</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2.91849136582942</v>
+      </c>
+      <c r="F8" s="14">
+        <v>5.4945790475952903</v>
+      </c>
+      <c r="G8" s="14">
+        <v>4.33958279270463</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14">
+        <v>-0.44560948429019198</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.26591008712963299</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1.76412470294838</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3.2712945529116801</v>
+      </c>
+      <c r="G13" s="14">
+        <v>3.0296331052236698</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>11.689138594076301</v>
+      </c>
+      <c r="D14" s="14">
+        <v>10.625114352934</v>
+      </c>
+      <c r="E14" s="14">
+        <v>14.969533272369899</v>
+      </c>
+      <c r="F14" s="14">
+        <v>15.604759461408801</v>
+      </c>
+      <c r="G14" s="14">
+        <v>15.5666342262758</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="14">
+        <v>4.7566935571848301</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4.8140353434686096</v>
+      </c>
+      <c r="E15" s="14">
+        <v>6.6678362047723896</v>
+      </c>
+      <c r="F15" s="14">
+        <v>8.1973082133004898</v>
+      </c>
+      <c r="G15" s="14">
+        <v>7.4963761923078298</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1.9166180310894001</v>
+      </c>
+      <c r="D16" s="14">
+        <v>2.3491996850528598</v>
+      </c>
+      <c r="E16" s="14">
+        <v>2.9623444224797399</v>
+      </c>
+      <c r="F16" s="14">
+        <v>5.3338418933174099</v>
+      </c>
+      <c r="G16" s="14">
+        <v>4.3657258590163499</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="14">
+        <v>-0.40875786120588298</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.18451798878180201</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1.66380482358564</v>
+      </c>
+      <c r="F21" s="14">
+        <v>3.2496401210304899</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3.0402438754354799</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="14">
+        <v>11.3759172609322</v>
+      </c>
+      <c r="D22" s="14">
+        <v>10.806331459952</v>
+      </c>
+      <c r="E22" s="14">
+        <v>15.004542327124099</v>
+      </c>
+      <c r="F22" s="14">
+        <v>15.7277376342821</v>
+      </c>
+      <c r="G22" s="14">
+        <v>15.702218641546899</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4.9519251647914597</v>
+      </c>
+      <c r="D23" s="14">
+        <v>4.9566491895718601</v>
+      </c>
+      <c r="E23" s="14">
+        <v>6.52599510985225</v>
+      </c>
+      <c r="F23" s="14">
+        <v>8.4104711294802605</v>
+      </c>
+      <c r="G23" s="14">
+        <v>7.6390008432847498</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1.84477239983698</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2.3986972460364102</v>
+      </c>
+      <c r="E24" s="14">
+        <v>2.9625585895740398</v>
+      </c>
+      <c r="F24" s="14">
+        <v>5.3943531082860599</v>
+      </c>
+      <c r="G24" s="14">
+        <v>4.4223645968646403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D3C13F-8AFB-4940-BA6B-66BB3A8881CC}">
   <dimension ref="A2:G21"/>
   <sheetViews>

--- a/output/Statistics.xlsx
+++ b/output/Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bcchanaka/PycharmProjects/Research-Proj-NetEmb/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC53FE-D720-9A49-8D6E-634695D57EA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661DA14-3803-024C-BFBA-494B191E406B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{5F611BA1-94CC-3745-B4FE-A5D1794A1628}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="5" xr2:uid="{5F611BA1-94CC-3745-B4FE-A5D1794A1628}"/>
   </bookViews>
   <sheets>
     <sheet name="1CDX" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="Non-Zero Entries" sheetId="3" r:id="rId3"/>
     <sheet name="Percentile Stats" sheetId="4" r:id="rId4"/>
     <sheet name="Common vs unique" sheetId="6" r:id="rId5"/>
-    <sheet name="mESC-results" sheetId="7" r:id="rId6"/>
-    <sheet name="Temp" sheetId="5" r:id="rId7"/>
+    <sheet name="Temp" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="167">
   <si>
     <t>100k</t>
   </si>
@@ -539,36 +538,12 @@
   <si>
     <t>pronucleus_female vs pronucleus_male</t>
   </si>
-  <si>
-    <t>ctcf</t>
-  </si>
-  <si>
-    <t>enhancer</t>
-  </si>
-  <si>
-    <t>h3k4me3</t>
-  </si>
-  <si>
-    <t>h3k27ac</t>
-  </si>
-  <si>
-    <t>polII</t>
-  </si>
-  <si>
-    <t>Random Samples - 1000</t>
-  </si>
-  <si>
-    <t>Random Samples - 10000</t>
-  </si>
-  <si>
-    <t>Unique Bins</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -656,14 +631,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -846,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -953,7 +920,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31768,16 +31734,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32601,359 +32567,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79279AC2-1421-DE4A-83E6-0CA7CDEC1039}">
-  <dimension ref="B4:K24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14">
-        <v>-0.39518695378250401</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0.143413158361862</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1.67801302727702</v>
-      </c>
-      <c r="F5" s="14">
-        <v>3.3061418911727198</v>
-      </c>
-      <c r="G5" s="14">
-        <v>3.15763483640308</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="14">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="14">
-        <v>11.5907613056856</v>
-      </c>
-      <c r="D6" s="14">
-        <v>10.625114352934</v>
-      </c>
-      <c r="E6" s="14">
-        <v>14.808190097347801</v>
-      </c>
-      <c r="F6" s="14">
-        <v>15.447050808019201</v>
-      </c>
-      <c r="G6" s="14">
-        <v>15.6425042093173</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="14">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="14">
-        <v>4.7566935571848301</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4.8140353434686096</v>
-      </c>
-      <c r="E7" s="14">
-        <v>6.4456613229978696</v>
-      </c>
-      <c r="F7" s="14">
-        <v>8.6429172781174195</v>
-      </c>
-      <c r="G7" s="14">
-        <v>7.6995844673625404</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="14">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1.8437602624740399</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2.3892769405165799</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2.91849136582942</v>
-      </c>
-      <c r="F8" s="14">
-        <v>5.4945790475952903</v>
-      </c>
-      <c r="G8" s="14">
-        <v>4.33958279270463</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="14">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="14">
-        <v>-0.44560948429019198</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.26591008712963299</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1.76412470294838</v>
-      </c>
-      <c r="F13" s="14">
-        <v>3.2712945529116801</v>
-      </c>
-      <c r="G13" s="14">
-        <v>3.0296331052236698</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>11.689138594076301</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10.625114352934</v>
-      </c>
-      <c r="E14" s="14">
-        <v>14.969533272369899</v>
-      </c>
-      <c r="F14" s="14">
-        <v>15.604759461408801</v>
-      </c>
-      <c r="G14" s="14">
-        <v>15.5666342262758</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="14">
-        <v>4.7566935571848301</v>
-      </c>
-      <c r="D15" s="14">
-        <v>4.8140353434686096</v>
-      </c>
-      <c r="E15" s="14">
-        <v>6.6678362047723896</v>
-      </c>
-      <c r="F15" s="14">
-        <v>8.1973082133004898</v>
-      </c>
-      <c r="G15" s="14">
-        <v>7.4963761923078298</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="14">
-        <v>1.9166180310894001</v>
-      </c>
-      <c r="D16" s="14">
-        <v>2.3491996850528598</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2.9623444224797399</v>
-      </c>
-      <c r="F16" s="14">
-        <v>5.3338418933174099</v>
-      </c>
-      <c r="G16" s="14">
-        <v>4.3657258590163499</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="14">
-        <v>-0.40875786120588298</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.18451798878180201</v>
-      </c>
-      <c r="E21" s="14">
-        <v>1.66380482358564</v>
-      </c>
-      <c r="F21" s="14">
-        <v>3.2496401210304899</v>
-      </c>
-      <c r="G21" s="14">
-        <v>3.0402438754354799</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="14">
-        <v>11.3759172609322</v>
-      </c>
-      <c r="D22" s="14">
-        <v>10.806331459952</v>
-      </c>
-      <c r="E22" s="14">
-        <v>15.004542327124099</v>
-      </c>
-      <c r="F22" s="14">
-        <v>15.7277376342821</v>
-      </c>
-      <c r="G22" s="14">
-        <v>15.702218641546899</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="14">
-        <v>4.9519251647914597</v>
-      </c>
-      <c r="D23" s="14">
-        <v>4.9566491895718601</v>
-      </c>
-      <c r="E23" s="14">
-        <v>6.52599510985225</v>
-      </c>
-      <c r="F23" s="14">
-        <v>8.4104711294802605</v>
-      </c>
-      <c r="G23" s="14">
-        <v>7.6390008432847498</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="14">
-        <v>1.84477239983698</v>
-      </c>
-      <c r="D24" s="14">
-        <v>2.3986972460364102</v>
-      </c>
-      <c r="E24" s="14">
-        <v>2.9625585895740398</v>
-      </c>
-      <c r="F24" s="14">
-        <v>5.3943531082860599</v>
-      </c>
-      <c r="G24" s="14">
-        <v>4.4223645968646403</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D3C13F-8AFB-4940-BA6B-66BB3A8881CC}">
   <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>

--- a/output/Statistics.xlsx
+++ b/output/Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bcchanaka/PycharmProjects/Research-Proj-NetEmb/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661DA14-3803-024C-BFBA-494B191E406B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC9825B-E883-944E-B8F1-640D244E4B8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="5" xr2:uid="{5F611BA1-94CC-3745-B4FE-A5D1794A1628}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{5F611BA1-94CC-3745-B4FE-A5D1794A1628}"/>
   </bookViews>
   <sheets>
     <sheet name="1CDX" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Percentile Stats" sheetId="4" r:id="rId4"/>
     <sheet name="Common vs unique" sheetId="6" r:id="rId5"/>
     <sheet name="Temp" sheetId="5" r:id="rId6"/>
+    <sheet name="Tools" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="233">
   <si>
     <t>100k</t>
   </si>
@@ -538,12 +539,210 @@
   <si>
     <t>pronucleus_female vs pronucleus_male</t>
   </si>
+  <si>
+    <t>jodie</t>
+  </si>
+  <si>
+    <t>AmpliGraph</t>
+  </si>
+  <si>
+    <t>The data should be changed according to the time, temporal graphs</t>
+  </si>
+  <si>
+    <t>Can be Used?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Supervised Learning</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>For directed acyclic graph</t>
+  </si>
+  <si>
+    <t>SEAL-CI</t>
+  </si>
+  <si>
+    <t>apply for hierarchical graphs</t>
+  </si>
+  <si>
+    <t>N-GCN</t>
+  </si>
+  <si>
+    <t>Graph Convolution? Need to check</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/MixHop-and-N-GCN</t>
+  </si>
+  <si>
+    <t>CapsGNN</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/CapsGNN</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Splitter</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Multiple embeddings</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>REGAL</t>
+  </si>
+  <si>
+    <t>Different graph alignment</t>
+  </si>
+  <si>
+    <t>PyTorch Geometric</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>TuckER</t>
+  </si>
+  <si>
+    <t>HypER</t>
+  </si>
+  <si>
+    <t>Link prediction</t>
+  </si>
+  <si>
+    <t>GWNN</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/GraphWaveletNeuralNetwork</t>
+  </si>
+  <si>
+    <t>APPNP</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/APPNP</t>
+  </si>
+  <si>
+    <t>Seems Possible?</t>
+  </si>
+  <si>
+    <t>role2vec</t>
+  </si>
+  <si>
+    <t>Role-based Graph Embeddings, attributed random walks</t>
+  </si>
+  <si>
+    <t>AttentionWalk</t>
+  </si>
+  <si>
+    <t>automatically learn hyper parameters</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/AttentionWalk</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/role2vec</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/Splitter</t>
+  </si>
+  <si>
+    <t>GAT</t>
+  </si>
+  <si>
+    <t>Possible?</t>
+  </si>
+  <si>
+    <t>https://github.com/Diego999/pyGAT</t>
+  </si>
+  <si>
+    <t>SINE</t>
+  </si>
+  <si>
+    <t>incomplete network embedding to tackle missing data</t>
+  </si>
+  <si>
+    <t>SGCN</t>
+  </si>
+  <si>
+    <t>For signed networks</t>
+  </si>
+  <si>
+    <t>TENE</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/TENE</t>
+  </si>
+  <si>
+    <t>incorporate text info into network embedding</t>
+  </si>
+  <si>
+    <t>DANMF</t>
+  </si>
+  <si>
+    <t>Community detection?</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/DANMF</t>
+  </si>
+  <si>
+    <t>AspEm</t>
+  </si>
+  <si>
+    <t>Heterogeneous Information Networks</t>
+  </si>
+  <si>
+    <t>walklets</t>
+  </si>
+  <si>
+    <t> learning multiscale representations</t>
+  </si>
+  <si>
+    <t>https://github.com/benedekrozemberczki/walklets</t>
+  </si>
+  <si>
+    <t>AWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anonymous Walk Embeddings </t>
+  </si>
+  <si>
+    <t>https://github.com/nd7141/AWE</t>
+  </si>
+  <si>
+    <t>verse</t>
+  </si>
+  <si>
+    <t>Versatile Graph Embeddings</t>
+  </si>
+  <si>
+    <t>Possbile</t>
+  </si>
+  <si>
+    <t>https://github.com/xgfs/verse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -631,6 +830,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -809,11 +1016,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -920,8 +1128,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -31734,16 +31944,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32570,7 +32780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D3C13F-8AFB-4940-BA6B-66BB3A8881CC}">
   <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -32713,4 +32923,354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7999ABC1-56D9-D14D-BB58-891FC6DFB583}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{CD16EE5B-71AE-2047-B019-2D9754A991A2}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{A0D37F4F-7CB3-0949-AD16-3936CF5CF28C}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{CE2DC9F4-C40B-984B-B6CB-1B0D4DA7443D}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{40A414D6-86FB-A84D-AF9A-28B7114A2238}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{508FD088-9765-C84A-AEDD-4CF57AB8DAB3}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{7AF65F0D-0B67-5742-8D6C-0100FD3E31DB}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{05E1C815-C8DF-9549-BE54-42CC63045D28}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{FA12ED08-0DA1-2044-AFE4-C7AB5C27D40D}"/>
+    <hyperlink ref="D23" r:id="rId9" xr:uid="{8D48F28C-0463-3B45-B5A6-F0DA7BB86CD7}"/>
+    <hyperlink ref="D24" r:id="rId10" xr:uid="{8629CC60-437C-E343-81EF-413949F553EA}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{DF0B5FE1-4868-E94D-A2E3-C14CD45C1BEA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>